--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W5_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W5_H100_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5566037735849056</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5384615384615384</v>
-      </c>
+        <v>0.552870090634441</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9672131147540983</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0472972972972973</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5558912386706949</v>
+        <v>0.552870090634441</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7065868263473054</v>
+        <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4561933534743202</v>
+        <v>0.4954682779456193</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.07873764458320139</v>
+        <v>0.1597348536759311</v>
       </c>
       <c r="J2" t="n">
-        <v>1021.28537969612</v>
+        <v>2140.767947943545</v>
       </c>
       <c r="K2" t="n">
-        <v>1618462.964706422</v>
+        <v>6189880.82860148</v>
       </c>
       <c r="L2" t="n">
-        <v>1272.188258358967</v>
+        <v>2487.947111295069</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6974390125561597</v>
+        <v>-0.1571574367171735</v>
       </c>
     </row>
   </sheetData>
